--- a/APF/QA/RA006/QAP001_APF_RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0201_功能清單設定作業.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a8907010\Documents\suda3g\9. 品質管理\9.3 文件檢視記錄統計\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修訂履歷" sheetId="5" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <definedName name="原因分類">備註說明!$D$2:$D$8</definedName>
     <definedName name="植入Bug來源">備註說明!$A$2:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -40,7 +35,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="1" shapeId="0">
+    <comment ref="Q6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -125,7 +120,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="413">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2446,6 +2441,64 @@
   </si>
   <si>
     <t>表達不清楚</t>
+  </si>
+  <si>
+    <t>英杰、鈺杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>英杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA PM-2</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設查詢條件下拉選單抓取條件要明確</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能設計</t>
+  </si>
+  <si>
+    <t xml:space="preserve">預設查詢條件下拉選單會存取common_parameter，要在參數檔中設定class = DefaultQuery, name = 欄位中文名稱, value = 欄位id </t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>因功能清單會上傳至APF DB，但參數檔不同，會影響UI顯示</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料仍上傳，但預設如查詢不到則該下拉選單disable，因此應不受影響</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF僅能查詢其他模組功能清單，但不能修改其餘模組資訊</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式未控管到此一項目，應用common_Parameter內的模組名稱判斷，如不相同表示非同模組功能，則不可修改</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除功能清單時應是遞回判斷，要補充說明於SA、SD文件中</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3924,13 +3977,13 @@
     <cellStyle name="輔色4" xfId="33" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="35" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="標準_障害" xfId="36"/>
     <cellStyle name="標題" xfId="37" builtinId="15" customBuiltin="1"/>
     <cellStyle name="標題 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標題 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="標題 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="標題 4" xfId="41" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="輸入" xfId="43" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="44" builtinId="21" customBuiltin="1"/>
     <cellStyle name="檢查儲存格" xfId="45" builtinId="23" customBuiltin="1"/>
@@ -4030,7 +4083,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4065,7 +4118,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4540,11 +4593,11 @@
   </sheetPr>
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4673,19 +4726,19 @@
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
-        <v>1.3333333333333286</v>
+        <v>4.0000000000000071</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="109">
         <f ca="1">SUM($N$7:$N$27)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G5" s="109">
         <f ca="1">SUM($O$7:$O$27)</f>
@@ -4693,7 +4746,7 @@
       </c>
       <c r="H5" s="110">
         <f ca="1">F5-G5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="58"/>
@@ -4823,37 +4876,62 @@
       <c r="R7" s="72"/>
     </row>
     <row r="8" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A8" s="64"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70" t="str">
+      <c r="A8" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="1">
+        <f ca="1">IF(A8="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B8,,-1,,),OFFSET(B8,,-1,,)))</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>383</v>
+      </c>
+      <c r="E8" s="66">
+        <v>41605</v>
+      </c>
+      <c r="F8" s="140" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" s="66">
+        <v>41605</v>
+      </c>
+      <c r="H8" s="67">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I8" s="67">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="J8" s="65">
+        <v>4</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="M8" s="70">
         <f>IF(C8="","",J8*(I8-H8)*24)</f>
-        <v/>
-      </c>
-      <c r="N8" s="63" t="str">
-        <f>IF(C8="","",COUNTIF(改善明細!A:A,Q8))</f>
-        <v/>
-      </c>
-      <c r="O8" s="63" t="str">
-        <f>IF(C8="","",COUNTIFS(改善明細!$A:$A,Q8, 改善明細!$J:$J,"V"))</f>
-        <v/>
+        <v>2.6666666666666785</v>
+      </c>
+      <c r="N8" s="63">
+        <f ca="1">IF(C8="","",COUNTIF(改善明細!A:A,Q8))</f>
+        <v>4</v>
+      </c>
+      <c r="O8" s="63">
+        <f ca="1">IF(C8="","",COUNTIFS(改善明細!$A:$A,Q8, 改善明細!$J:$J,"V"))</f>
+        <v>0</v>
       </c>
       <c r="P8" s="71" t="str">
-        <f t="shared" ref="P8" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
-        <v/>
+        <f t="shared" ref="P8" ca="1" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
+        <v>SA PM</v>
       </c>
       <c r="Q8" s="71" t="str">
-        <f>IF(OR(A8="",B8=""),"",A8&amp;"-"&amp;B8)</f>
-        <v/>
+        <f ca="1">IF(OR(A8="",B8=""),"",A8&amp;"-"&amp;B8)</f>
+        <v>SA PM-2</v>
       </c>
       <c r="R8" s="72"/>
     </row>
@@ -5824,11 +5902,11 @@
   </sheetPr>
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -6011,14 +6089,28 @@
       <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
+      <c r="A5" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>403</v>
+      </c>
       <c r="G5" s="46"/>
-      <c r="H5" s="91"/>
+      <c r="H5" s="91">
+        <v>41606</v>
+      </c>
       <c r="I5" s="91"/>
       <c r="J5" s="89"/>
       <c r="K5" s="89"/>
@@ -6029,15 +6121,31 @@
       <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>403</v>
+      </c>
       <c r="G6" s="46"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="91">
+        <v>41605</v>
+      </c>
+      <c r="I6" s="91">
+        <v>41605</v>
+      </c>
       <c r="J6" s="89"/>
       <c r="K6" s="89"/>
       <c r="L6" s="90"/>
@@ -6047,14 +6155,28 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
+      <c r="A7" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>403</v>
+      </c>
       <c r="G7" s="44"/>
-      <c r="H7" s="91"/>
+      <c r="H7" s="91">
+        <v>41606</v>
+      </c>
       <c r="I7" s="91"/>
       <c r="J7" s="89"/>
       <c r="K7" s="89"/>
@@ -6065,14 +6187,28 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
+      <c r="A8" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>396</v>
+      </c>
       <c r="G8" s="44"/>
-      <c r="H8" s="91"/>
+      <c r="H8" s="91">
+        <v>41606</v>
+      </c>
       <c r="I8" s="91"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>

--- a/APF/QA/RA006/QAP001_APF_RA006_APF0201_功能清單設定作業.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0201_功能清單設定作業.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\QA\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="1"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <definedName name="原因分類">備註說明!$D$2:$D$8</definedName>
     <definedName name="植入Bug來源">備註說明!$A$2:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -35,7 +40,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="1">
+    <comment ref="Q6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +125,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="415">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2390,115 +2395,122 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>英杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>懿信</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>如左列所示</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>[清除重填]欄位遺漏功能代號欄位名稱</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>[清除重填]不再提供提示訊息</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>如左列所示</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>懿信</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能分析</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>功能分析</t>
+  </si>
+  <si>
+    <t>表達不清楚</t>
+  </si>
+  <si>
+    <t>英杰、鈺杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>英杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SA PM-2</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設查詢條件下拉選單抓取條件要明確</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能設計</t>
+  </si>
+  <si>
+    <t xml:space="preserve">預設查詢條件下拉選單會存取common_parameter，要在參數檔中設定class = DefaultQuery, name = 欄位中文名稱, value = 欄位id </t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>因功能清單會上傳至APF DB，但參數檔不同，會影響UI顯示</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料仍上傳，但預設如查詢不到則該下拉選單disable，因此應不受影響</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF僅能查詢其他模組功能清單，但不能修改其餘模組資訊</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式未控管到此一項目，應用common_Parameter內的模組名稱判斷，如不相同表示非同模組功能，則不可修改</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除功能清單時應是遞回判斷，要補充說明於SA、SD文件中</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>懿信、 英杰、鈺杰、慕霖</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>英杰</t>
+    <t>懿信、英杰、鈺杰、慕霖</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>懿信</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>如左列所示</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>[清除重填]欄位遺漏功能代號欄位名稱</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>[清除重填]不再提供提示訊息</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>如左列所示</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>懿信</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能分析</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>功能分析</t>
-  </si>
-  <si>
-    <t>表達不清楚</t>
-  </si>
-  <si>
-    <t>英杰、鈺杰、慕霖</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>英杰、慕霖</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>SA PM-2</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設查詢條件下拉選單抓取條件要明確</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能設計</t>
-  </si>
-  <si>
-    <t xml:space="preserve">預設查詢條件下拉選單會存取common_parameter，要在參數檔中設定class = DefaultQuery, name = 欄位中文名稱, value = 欄位id </t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>因功能清單會上傳至APF DB，但參數檔不同，會影響UI顯示</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料仍上傳，但預設如查詢不到則該下拉選單disable，因此應不受影響</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF僅能查詢其他模組功能清單，但不能修改其餘模組資訊</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>程式未控管到此一項目，應用common_Parameter內的模組名稱判斷，如不相同表示非同模組功能，則不可修改</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除功能清單時應是遞回判斷，要補充說明於SA、SD文件中</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3425,7 +3437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3565,10 +3577,6 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3977,13 +3985,13 @@
     <cellStyle name="輔色4" xfId="33" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="35" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="標準_障害" xfId="36"/>
     <cellStyle name="標題" xfId="37" builtinId="15" customBuiltin="1"/>
     <cellStyle name="標題 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標題 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="標題 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="標題 4" xfId="41" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="輸入" xfId="43" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="44" builtinId="21" customBuiltin="1"/>
     <cellStyle name="檢查儲存格" xfId="45" builtinId="23" customBuiltin="1"/>
@@ -4083,7 +4091,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4118,7 +4126,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4356,55 +4364,55 @@
       <c r="B2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="143" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="143" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="143" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
     </row>
     <row r="6" spans="1:6" s="8" customFormat="1" ht="16.5">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="143"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="9" t="s">
@@ -4597,1275 +4605,1299 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="77" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="49" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="78" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="78" customWidth="1"/>
-    <col min="5" max="5" width="12" style="77" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="77" customWidth="1"/>
-    <col min="7" max="7" width="12" style="77" customWidth="1"/>
-    <col min="8" max="9" width="11.5" style="77" customWidth="1"/>
-    <col min="10" max="10" width="8.375" style="77" customWidth="1"/>
-    <col min="11" max="12" width="25.5" style="77" customWidth="1"/>
-    <col min="13" max="14" width="8.375" style="77" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="79" customWidth="1"/>
-    <col min="16" max="16" width="12" style="79" customWidth="1"/>
-    <col min="17" max="17" width="12" style="77" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="77" customWidth="1"/>
-    <col min="19" max="22" width="8.25" style="80" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="80"/>
+    <col min="1" max="1" width="14.125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="48" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="77" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="77" customWidth="1"/>
+    <col min="5" max="5" width="12" style="76" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="76" customWidth="1"/>
+    <col min="7" max="7" width="12" style="76" customWidth="1"/>
+    <col min="8" max="9" width="11.5" style="76" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="76" customWidth="1"/>
+    <col min="11" max="12" width="25.5" style="76" customWidth="1"/>
+    <col min="13" max="14" width="8.375" style="76" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="78" customWidth="1"/>
+    <col min="16" max="16" width="12" style="78" customWidth="1"/>
+    <col min="17" max="17" width="12" style="76" customWidth="1"/>
+    <col min="18" max="18" width="2.5" style="76" customWidth="1"/>
+    <col min="19" max="22" width="8.25" style="79" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="54" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="1:20" s="53" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-    </row>
-    <row r="2" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="50" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+    </row>
+    <row r="2" spans="1:20" s="58" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="54"/>
+      <c r="B2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-    </row>
-    <row r="3" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="50" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+    </row>
+    <row r="3" spans="1:20" s="58" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="54"/>
+      <c r="B3" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-    </row>
-    <row r="4" spans="1:20" s="102" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="50" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+    </row>
+    <row r="4" spans="1:20" s="101" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="97" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="120" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="H4" s="101" t="s">
+      <c r="H4" s="100" t="s">
         <v>286</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="58"/>
-    </row>
-    <row r="5" spans="1:20" s="102" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="50" t="s">
+      <c r="I4" s="52"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="57"/>
+    </row>
+    <row r="5" spans="1:20" s="101" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="61"/>
+      <c r="B5" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="98">
         <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="108">
+        <v>3</v>
+      </c>
+      <c r="D5" s="107">
         <f>SUM($M$7:$M$27)</f>
-        <v>4.0000000000000071</v>
-      </c>
-      <c r="E5" s="99">
+        <v>14.000000000000004</v>
+      </c>
+      <c r="E5" s="98">
         <f>SUM($J$7:$J$27)</f>
-        <v>8</v>
-      </c>
-      <c r="F5" s="109">
+        <v>12</v>
+      </c>
+      <c r="F5" s="108">
         <f ca="1">SUM($N$7:$N$27)</f>
         <v>6</v>
       </c>
-      <c r="G5" s="109">
+      <c r="G5" s="108">
         <f ca="1">SUM($O$7:$O$27)</f>
-        <v>2</v>
-      </c>
-      <c r="H5" s="110">
+        <v>6</v>
+      </c>
+      <c r="H5" s="109">
         <f ca="1">F5-G5</f>
-        <v>4</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="58"/>
-    </row>
-    <row r="6" spans="1:20" s="58" customFormat="1" ht="33">
-      <c r="A6" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="57"/>
+    </row>
+    <row r="6" spans="1:20" s="57" customFormat="1" ht="33">
+      <c r="A6" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="104" t="s">
         <v>277</v>
       </c>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="102" t="s">
         <v>303</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="103" t="s">
+      <c r="J6" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="103" t="s">
+      <c r="K6" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="103" t="s">
+      <c r="L6" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="104" t="s">
+      <c r="M6" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="103" t="s">
+      <c r="N6" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="105" t="s">
+      <c r="O6" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="103" t="s">
+      <c r="P6" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="103" t="s">
+      <c r="Q6" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="106" t="s">
+      <c r="R6" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-    </row>
-    <row r="7" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A7" s="64" t="s">
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+    </row>
+    <row r="7" spans="1:20" s="54" customFormat="1" ht="16.5">
+      <c r="A7" s="63" t="s">
         <v>380</v>
       </c>
       <c r="B7" s="1">
         <f ca="1">IF(A7="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B7,,-1,,),OFFSET(B7,,-1,,)))</f>
         <v>1</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="139" t="s">
         <v>383</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="65">
         <v>41598</v>
       </c>
-      <c r="F7" s="140" t="s">
+      <c r="F7" s="139" t="s">
         <v>382</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="65">
         <v>41598</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="66">
         <v>0.73611111111111116</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="66">
         <v>0.75</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="64">
         <v>4</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="L7" s="68" t="s">
         <v>384</v>
       </c>
-      <c r="L7" s="69" t="s">
-        <v>385</v>
-      </c>
-      <c r="M7" s="70">
+      <c r="M7" s="69">
         <f>IF(C7="","",J7*(I7-H7)*24)</f>
         <v>1.3333333333333286</v>
       </c>
-      <c r="N7" s="63">
+      <c r="N7" s="62">
         <f ca="1">IF(C7="","",COUNTIF(改善明細!A:A,Q7))</f>
         <v>2</v>
       </c>
-      <c r="O7" s="63">
+      <c r="O7" s="62">
         <f ca="1">IF(C7="","",COUNTIFS(改善明細!$A:$A,Q7, 改善明細!$J:$J,"V"))</f>
         <v>2</v>
       </c>
-      <c r="P7" s="71" t="str">
+      <c r="P7" s="70" t="str">
         <f t="shared" ref="P7" ca="1" si="0">IF(Q7="","",LEFT(Q7,FIND("-",Q7)-1))</f>
         <v>SA PM</v>
       </c>
-      <c r="Q7" s="71" t="str">
+      <c r="Q7" s="70" t="str">
         <f ca="1">IF(OR(A7="",B7=""),"",A7&amp;"-"&amp;B7)</f>
         <v>SA PM-1</v>
       </c>
-      <c r="R7" s="72"/>
-    </row>
-    <row r="8" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A8" s="64" t="s">
+      <c r="R7" s="71"/>
+    </row>
+    <row r="8" spans="1:20" s="54" customFormat="1" ht="16.5">
+      <c r="A8" s="63" t="s">
         <v>380</v>
       </c>
       <c r="B8" s="1">
         <f ca="1">IF(A8="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B8,,-1,,),OFFSET(B8,,-1,,)))</f>
         <v>2</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="139" t="s">
         <v>383</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="65">
         <v>41605</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="139" t="s">
         <v>382</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="65">
         <v>41605</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="66">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="66">
         <v>0.75694444444444453</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="64">
         <v>4</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="67" t="s">
+        <v>397</v>
+      </c>
+      <c r="L8" s="68" t="s">
         <v>398</v>
       </c>
-      <c r="L8" s="69" t="s">
-        <v>399</v>
-      </c>
-      <c r="M8" s="70">
+      <c r="M8" s="69">
         <f>IF(C8="","",J8*(I8-H8)*24)</f>
         <v>2.6666666666666785</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="62">
         <f ca="1">IF(C8="","",COUNTIF(改善明細!A:A,Q8))</f>
         <v>4</v>
       </c>
-      <c r="O8" s="63">
+      <c r="O8" s="62">
         <f ca="1">IF(C8="","",COUNTIFS(改善明細!$A:$A,Q8, 改善明細!$J:$J,"V"))</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="71" t="str">
+        <v>4</v>
+      </c>
+      <c r="P8" s="70" t="str">
         <f t="shared" ref="P8" ca="1" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
         <v>SA PM</v>
       </c>
-      <c r="Q8" s="71" t="str">
+      <c r="Q8" s="70" t="str">
         <f ca="1">IF(OR(A8="",B8=""),"",A8&amp;"-"&amp;B8)</f>
         <v>SA PM-2</v>
       </c>
-      <c r="R8" s="72"/>
-    </row>
-    <row r="9" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A9" s="64"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70" t="str">
+      <c r="R8" s="71"/>
+    </row>
+    <row r="9" spans="1:20" s="54" customFormat="1" ht="16.5">
+      <c r="A9" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="65">
+        <v>41610</v>
+      </c>
+      <c r="F9" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9" s="65">
+        <v>41610</v>
+      </c>
+      <c r="H9" s="66">
+        <v>0.5625</v>
+      </c>
+      <c r="I9" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J9" s="64">
+        <v>4</v>
+      </c>
+      <c r="K9" s="67" t="s">
+        <v>414</v>
+      </c>
+      <c r="L9" s="68" t="s">
+        <v>398</v>
+      </c>
+      <c r="M9" s="69">
         <f>IF(C9="","",J9*(I9-H9)*24)</f>
-        <v/>
-      </c>
-      <c r="N9" s="63" t="str">
+        <v>9.9999999999999964</v>
+      </c>
+      <c r="N9" s="62">
         <f>IF(C9="","",COUNTIF(改善明細!A:A,Q9))</f>
-        <v/>
-      </c>
-      <c r="O9" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="O9" s="62">
         <f>IF(C9="","",COUNTIFS(改善明細!$A:$A,Q9, 改善明細!$J:$J,"V"))</f>
-        <v/>
-      </c>
-      <c r="P9" s="71" t="str">
+        <v>0</v>
+      </c>
+      <c r="P9" s="70" t="str">
         <f t="shared" ref="P9" si="2">IF(Q9="","",LEFT(Q9,FIND("-",Q9)-1))</f>
-        <v/>
-      </c>
-      <c r="Q9" s="71" t="str">
+        <v>SA PM</v>
+      </c>
+      <c r="Q9" s="70" t="str">
         <f>IF(OR(A9="",B9=""),"",A9&amp;"-"&amp;B9)</f>
-        <v/>
-      </c>
-      <c r="R9" s="72"/>
-    </row>
-    <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A10" s="64"/>
+        <v>SA PM-3</v>
+      </c>
+      <c r="R9" s="71"/>
+    </row>
+    <row r="10" spans="1:20" s="54" customFormat="1" ht="16.5">
+      <c r="A10" s="63"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70" t="str">
+      <c r="C10" s="64"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69" t="str">
         <f>IF(C10="","",J10*(I10-H10)*24)</f>
         <v/>
       </c>
-      <c r="N10" s="63" t="str">
+      <c r="N10" s="62" t="str">
         <f>IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
         <v/>
       </c>
-      <c r="O10" s="63" t="str">
+      <c r="O10" s="62" t="str">
         <f>IF(C10="","",COUNTIFS(改善明細!$A:$A,Q10, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P10" s="71" t="str">
+      <c r="P10" s="70" t="str">
         <f t="shared" ref="P10" si="3">IF(Q10="","",LEFT(Q10,FIND("-",Q10)-1))</f>
         <v/>
       </c>
-      <c r="Q10" s="71" t="str">
+      <c r="Q10" s="70" t="str">
         <f>IF(OR(A10="",B10=""),"",A10&amp;"-"&amp;B10)</f>
         <v/>
       </c>
-      <c r="R10" s="74"/>
-    </row>
-    <row r="11" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A11" s="64"/>
+      <c r="R10" s="73"/>
+    </row>
+    <row r="11" spans="1:20" s="54" customFormat="1" ht="16.5">
+      <c r="A11" s="63"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="74"/>
-    </row>
-    <row r="12" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A12" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="73"/>
+    </row>
+    <row r="12" spans="1:20" s="54" customFormat="1" ht="16.5">
+      <c r="A12" s="63"/>
       <c r="B12" s="1" t="str">
         <f ca="1">IF(A12="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B12,,-1,,),OFFSET(B12,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="70" t="str">
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69" t="str">
         <f t="shared" ref="M12:M20" si="4">IF(C12="","",J12*(I12-H12)*24)</f>
         <v/>
       </c>
-      <c r="N12" s="63" t="str">
+      <c r="N12" s="62" t="str">
         <f>IF(C12="","",COUNTIF(改善明細!A:A,Q12))</f>
         <v/>
       </c>
-      <c r="O12" s="63" t="str">
+      <c r="O12" s="62" t="str">
         <f>IF(C12="","",COUNTIFS(改善明細!$A:$A,Q12, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P12" s="71" t="str">
+      <c r="P12" s="70" t="str">
         <f t="shared" ref="P12:P20" ca="1" si="5">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
         <v/>
       </c>
-      <c r="Q12" s="71" t="str">
+      <c r="Q12" s="70" t="str">
         <f t="shared" ref="Q12:Q20" ca="1" si="6">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
         <v/>
       </c>
-      <c r="R12" s="74"/>
-    </row>
-    <row r="13" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A13" s="64"/>
+      <c r="R12" s="73"/>
+    </row>
+    <row r="13" spans="1:20" s="54" customFormat="1" ht="16.5">
+      <c r="A13" s="63"/>
       <c r="B13" s="1" t="str">
         <f ca="1">IF(A13="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B13,,-1,,),OFFSET(B13,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70" t="str">
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="69" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N13" s="63" t="str">
+      <c r="N13" s="62" t="str">
         <f>IF(C13="","",COUNTIF(改善明細!A:A,Q13))</f>
         <v/>
       </c>
-      <c r="O13" s="63" t="str">
+      <c r="O13" s="62" t="str">
         <f>IF(C13="","",COUNTIFS(改善明細!$A:$A,Q13, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P13" s="71" t="str">
+      <c r="P13" s="70" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="Q13" s="71" t="str">
+      <c r="Q13" s="70" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R13" s="74"/>
-    </row>
-    <row r="14" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A14" s="64"/>
+      <c r="R13" s="73"/>
+    </row>
+    <row r="14" spans="1:20" s="54" customFormat="1" ht="16.5">
+      <c r="A14" s="63"/>
       <c r="B14" s="1" t="str">
         <f ca="1">IF(A14="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B14,,-1,,),OFFSET(B14,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70" t="str">
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="63" t="str">
+      <c r="N14" s="62" t="str">
         <f>IF(C14="","",COUNTIF(改善明細!A:A,Q14))</f>
         <v/>
       </c>
-      <c r="O14" s="63" t="str">
+      <c r="O14" s="62" t="str">
         <f>IF(C14="","",COUNTIFS(改善明細!$A:$A,Q14, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P14" s="71" t="str">
+      <c r="P14" s="70" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="Q14" s="71" t="str">
+      <c r="Q14" s="70" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R14" s="74"/>
-    </row>
-    <row r="15" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A15" s="64"/>
+      <c r="R14" s="73"/>
+    </row>
+    <row r="15" spans="1:20" s="54" customFormat="1" ht="16.5">
+      <c r="A15" s="63"/>
       <c r="B15" s="1" t="str">
         <f ca="1">IF(A15="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B15,,-1,,),OFFSET(B15,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70" t="str">
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N15" s="63" t="str">
+      <c r="N15" s="62" t="str">
         <f>IF(C15="","",COUNTIF(改善明細!A:A,Q15))</f>
         <v/>
       </c>
-      <c r="O15" s="63" t="str">
+      <c r="O15" s="62" t="str">
         <f>IF(C15="","",COUNTIFS(改善明細!$A:$A,Q15, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P15" s="71" t="str">
+      <c r="P15" s="70" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="Q15" s="71" t="str">
+      <c r="Q15" s="70" t="str">
         <f ca="1">IF(OR(A15="",B15=""),"",A15&amp;"-"&amp;B15)</f>
         <v/>
       </c>
-      <c r="R15" s="74"/>
-    </row>
-    <row r="16" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A16" s="64"/>
+      <c r="R15" s="73"/>
+    </row>
+    <row r="16" spans="1:20" s="54" customFormat="1" ht="16.5">
+      <c r="A16" s="63"/>
       <c r="B16" s="1" t="str">
         <f ca="1">IF(A16="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B16,,-1,,),OFFSET(B16,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70" t="str">
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N16" s="63" t="str">
+      <c r="N16" s="62" t="str">
         <f>IF(C16="","",COUNTIF(改善明細!A:A,Q16))</f>
         <v/>
       </c>
-      <c r="O16" s="63" t="str">
+      <c r="O16" s="62" t="str">
         <f>IF(C16="","",COUNTIFS(改善明細!$A:$A,Q16, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P16" s="71" t="str">
+      <c r="P16" s="70" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="Q16" s="71" t="str">
+      <c r="Q16" s="70" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R16" s="74"/>
-    </row>
-    <row r="17" spans="1:18" s="55" customFormat="1" ht="16.5">
-      <c r="A17" s="64"/>
+      <c r="R16" s="73"/>
+    </row>
+    <row r="17" spans="1:18" s="54" customFormat="1" ht="16.5">
+      <c r="A17" s="63"/>
       <c r="B17" s="1" t="str">
         <f ca="1">IF(A17="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B17,,-1,,),OFFSET(B17,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70" t="str">
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="69" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N17" s="63" t="str">
+      <c r="N17" s="62" t="str">
         <f>IF(C17="","",COUNTIF(改善明細!A:A,Q17))</f>
         <v/>
       </c>
-      <c r="O17" s="63" t="str">
+      <c r="O17" s="62" t="str">
         <f>IF(C17="","",COUNTIFS(改善明細!$A:$A,Q17, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P17" s="71" t="str">
+      <c r="P17" s="70" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="Q17" s="71" t="str">
+      <c r="Q17" s="70" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R17" s="74"/>
-    </row>
-    <row r="18" spans="1:18" s="55" customFormat="1" ht="16.5">
-      <c r="A18" s="64"/>
+      <c r="R17" s="73"/>
+    </row>
+    <row r="18" spans="1:18" s="54" customFormat="1" ht="16.5">
+      <c r="A18" s="63"/>
       <c r="B18" s="1" t="str">
         <f ca="1">IF(A18="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B18,,-1,,),OFFSET(B18,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70" t="str">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N18" s="63" t="str">
+      <c r="N18" s="62" t="str">
         <f>IF(C18="","",COUNTIF(改善明細!A:A,Q18))</f>
         <v/>
       </c>
-      <c r="O18" s="63" t="str">
+      <c r="O18" s="62" t="str">
         <f>IF(C18="","",COUNTIFS(改善明細!$A:$A,Q18, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P18" s="71" t="str">
+      <c r="P18" s="70" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="Q18" s="71" t="str">
+      <c r="Q18" s="70" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R18" s="74"/>
-    </row>
-    <row r="19" spans="1:18" s="55" customFormat="1" ht="16.5">
-      <c r="A19" s="64"/>
+      <c r="R18" s="73"/>
+    </row>
+    <row r="19" spans="1:18" s="54" customFormat="1" ht="16.5">
+      <c r="A19" s="63"/>
       <c r="B19" s="1" t="str">
         <f ca="1">IF(A19="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B19,,-1,,),OFFSET(B19,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70" t="str">
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="69" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N19" s="63" t="str">
+      <c r="N19" s="62" t="str">
         <f>IF(C19="","",COUNTIF(改善明細!A:A,Q19))</f>
         <v/>
       </c>
-      <c r="O19" s="63" t="str">
+      <c r="O19" s="62" t="str">
         <f>IF(C19="","",COUNTIFS(改善明細!$A:$A,Q19, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P19" s="71" t="str">
+      <c r="P19" s="70" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="Q19" s="71" t="str">
+      <c r="Q19" s="70" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R19" s="74"/>
-    </row>
-    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.5">
-      <c r="A20" s="64"/>
+      <c r="R19" s="73"/>
+    </row>
+    <row r="20" spans="1:18" s="54" customFormat="1" ht="16.5">
+      <c r="A20" s="63"/>
       <c r="B20" s="1" t="str">
         <f ca="1">IF(A20="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B20,,-1,,),OFFSET(B20,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="70" t="str">
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="69" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N20" s="63" t="str">
+      <c r="N20" s="62" t="str">
         <f>IF(C20="","",COUNTIF(改善明細!A:A,Q20))</f>
         <v/>
       </c>
-      <c r="O20" s="63" t="str">
+      <c r="O20" s="62" t="str">
         <f>IF(C20="","",COUNTIFS(改善明細!$A:$A,Q20, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P20" s="71" t="str">
+      <c r="P20" s="70" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="Q20" s="71" t="str">
+      <c r="Q20" s="70" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="R20" s="74"/>
-    </row>
-    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.5">
-      <c r="A21" s="64"/>
+      <c r="R20" s="73"/>
+    </row>
+    <row r="21" spans="1:18" s="54" customFormat="1" ht="16.5">
+      <c r="A21" s="63"/>
       <c r="B21" s="1" t="str">
         <f ca="1">IF(A21="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B21,,-1,,),OFFSET(B21,,-1,,)))</f>
         <v/>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="82" t="str">
+      <c r="C21" s="72"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="81" t="str">
         <f>IF(C21="","",J21*(I21-H21)*24)</f>
         <v/>
       </c>
-      <c r="N21" s="81" t="str">
+      <c r="N21" s="80" t="str">
         <f>IF(C21="","",COUNTIF(改善明細!A:A,Q21))</f>
         <v/>
       </c>
-      <c r="O21" s="63" t="str">
+      <c r="O21" s="62" t="str">
         <f>IF(C21="","",COUNTIFS(改善明細!$A:$A,Q21, 改善明細!$J:$J,"V"))</f>
         <v/>
       </c>
-      <c r="P21" s="83" t="str">
+      <c r="P21" s="82" t="str">
         <f ca="1">IF(Q21="","",LEFT(Q21,FIND("-",Q21)-1))</f>
         <v/>
       </c>
-      <c r="Q21" s="83" t="str">
+      <c r="Q21" s="82" t="str">
         <f ca="1">IF(OR(A21="",B21=""),"",A21&amp;"-"&amp;B21)</f>
         <v/>
       </c>
-      <c r="R21" s="74"/>
-    </row>
-    <row r="22" spans="1:18" s="55" customFormat="1">
-      <c r="A22" s="75" t="s">
+      <c r="R21" s="73"/>
+    </row>
+    <row r="22" spans="1:18" s="54" customFormat="1">
+      <c r="A22" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-    </row>
-    <row r="23" spans="1:18" s="55" customFormat="1">
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-    </row>
-    <row r="24" spans="1:18" s="55" customFormat="1">
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-    </row>
-    <row r="25" spans="1:18" s="55" customFormat="1">
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-    </row>
-    <row r="26" spans="1:18" s="55" customFormat="1">
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-    </row>
-    <row r="27" spans="1:18" s="55" customFormat="1">
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-    </row>
-    <row r="28" spans="1:18" s="55" customFormat="1">
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-    </row>
-    <row r="29" spans="1:18" s="55" customFormat="1">
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-    </row>
-    <row r="30" spans="1:18" s="55" customFormat="1">
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-    </row>
-    <row r="31" spans="1:18" s="55" customFormat="1">
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-    </row>
-    <row r="32" spans="1:18" s="55" customFormat="1">
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-    </row>
-    <row r="33" spans="15:16" s="55" customFormat="1">
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-    </row>
-    <row r="34" spans="15:16" s="55" customFormat="1">
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-    </row>
-    <row r="35" spans="15:16" s="55" customFormat="1">
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-    </row>
-    <row r="36" spans="15:16" s="55" customFormat="1">
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-    </row>
-    <row r="37" spans="15:16" s="55" customFormat="1">
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-    </row>
-    <row r="38" spans="15:16" s="55" customFormat="1">
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-    </row>
-    <row r="39" spans="15:16" s="55" customFormat="1">
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-    </row>
-    <row r="40" spans="15:16" s="55" customFormat="1">
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-    </row>
-    <row r="41" spans="15:16" s="55" customFormat="1">
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-    </row>
-    <row r="42" spans="15:16" s="55" customFormat="1">
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-    </row>
-    <row r="43" spans="15:16" s="55" customFormat="1">
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-    </row>
-    <row r="44" spans="15:16" s="55" customFormat="1">
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
-    </row>
-    <row r="45" spans="15:16" s="55" customFormat="1">
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-    </row>
-    <row r="46" spans="15:16" s="55" customFormat="1">
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
-    </row>
-    <row r="47" spans="15:16" s="55" customFormat="1">
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
-    </row>
-    <row r="48" spans="15:16" s="55" customFormat="1">
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-    </row>
-    <row r="49" spans="1:18" s="55" customFormat="1">
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-    </row>
-    <row r="50" spans="1:18" s="55" customFormat="1">
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-    </row>
-    <row r="51" spans="1:18" s="55" customFormat="1">
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-    </row>
-    <row r="52" spans="1:18" s="55" customFormat="1">
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
-    </row>
-    <row r="53" spans="1:18" s="55" customFormat="1">
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-    </row>
-    <row r="54" spans="1:18" s="55" customFormat="1">
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
-    </row>
-    <row r="55" spans="1:18" s="55" customFormat="1">
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
-    </row>
-    <row r="56" spans="1:18" s="59" customFormat="1">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="58"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-    </row>
-    <row r="57" spans="1:18" s="59" customFormat="1">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-    </row>
-    <row r="58" spans="1:18" s="59" customFormat="1">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-    </row>
-    <row r="59" spans="1:18" s="59" customFormat="1">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-    </row>
-    <row r="60" spans="1:18" s="59" customFormat="1">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-    </row>
-    <row r="61" spans="1:18" s="59" customFormat="1">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="58"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-    </row>
-    <row r="62" spans="1:18" s="59" customFormat="1">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-    </row>
-    <row r="63" spans="1:18" s="59" customFormat="1">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-    </row>
-    <row r="64" spans="1:18" s="59" customFormat="1">
-      <c r="A64" s="55"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="58"/>
-      <c r="P64" s="58"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-    </row>
-    <row r="65" spans="1:18" s="59" customFormat="1">
-      <c r="A65" s="55"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-    </row>
-    <row r="66" spans="1:18" s="59" customFormat="1">
-      <c r="A66" s="55"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="58"/>
-      <c r="P66" s="58"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="55"/>
-    </row>
-    <row r="67" spans="1:18" s="59" customFormat="1">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="58"/>
-      <c r="P67" s="58"/>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="55"/>
-    </row>
-    <row r="68" spans="1:18" s="59" customFormat="1">
-      <c r="A68" s="55"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="58"/>
-      <c r="P68" s="58"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-    </row>
-    <row r="69" spans="1:18" s="59" customFormat="1">
-      <c r="A69" s="55"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="55"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="55"/>
-      <c r="R69" s="55"/>
-    </row>
-    <row r="70" spans="1:18" s="59" customFormat="1">
-      <c r="A70" s="55"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="58"/>
-      <c r="P70" s="58"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="55"/>
-    </row>
-    <row r="71" spans="1:18" s="59" customFormat="1">
-      <c r="A71" s="55"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="58"/>
-      <c r="P71" s="58"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="55"/>
+      <c r="B22" s="75"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+    </row>
+    <row r="23" spans="1:18" s="54" customFormat="1">
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+    </row>
+    <row r="24" spans="1:18" s="54" customFormat="1">
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+    </row>
+    <row r="25" spans="1:18" s="54" customFormat="1">
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+    </row>
+    <row r="26" spans="1:18" s="54" customFormat="1">
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+    </row>
+    <row r="27" spans="1:18" s="54" customFormat="1">
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+    </row>
+    <row r="28" spans="1:18" s="54" customFormat="1">
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+    </row>
+    <row r="29" spans="1:18" s="54" customFormat="1">
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+    </row>
+    <row r="30" spans="1:18" s="54" customFormat="1">
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+    </row>
+    <row r="31" spans="1:18" s="54" customFormat="1">
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+    </row>
+    <row r="32" spans="1:18" s="54" customFormat="1">
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+    </row>
+    <row r="33" spans="15:16" s="54" customFormat="1">
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+    </row>
+    <row r="34" spans="15:16" s="54" customFormat="1">
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+    </row>
+    <row r="35" spans="15:16" s="54" customFormat="1">
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+    </row>
+    <row r="36" spans="15:16" s="54" customFormat="1">
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+    </row>
+    <row r="37" spans="15:16" s="54" customFormat="1">
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+    </row>
+    <row r="38" spans="15:16" s="54" customFormat="1">
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+    </row>
+    <row r="39" spans="15:16" s="54" customFormat="1">
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+    </row>
+    <row r="40" spans="15:16" s="54" customFormat="1">
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+    </row>
+    <row r="41" spans="15:16" s="54" customFormat="1">
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+    </row>
+    <row r="42" spans="15:16" s="54" customFormat="1">
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+    </row>
+    <row r="43" spans="15:16" s="54" customFormat="1">
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+    </row>
+    <row r="44" spans="15:16" s="54" customFormat="1">
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+    </row>
+    <row r="45" spans="15:16" s="54" customFormat="1">
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+    </row>
+    <row r="46" spans="15:16" s="54" customFormat="1">
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+    </row>
+    <row r="47" spans="15:16" s="54" customFormat="1">
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+    </row>
+    <row r="48" spans="15:16" s="54" customFormat="1">
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+    </row>
+    <row r="49" spans="1:18" s="54" customFormat="1">
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+    </row>
+    <row r="50" spans="1:18" s="54" customFormat="1">
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+    </row>
+    <row r="51" spans="1:18" s="54" customFormat="1">
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+    </row>
+    <row r="52" spans="1:18" s="54" customFormat="1">
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+    </row>
+    <row r="53" spans="1:18" s="54" customFormat="1">
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+    </row>
+    <row r="54" spans="1:18" s="54" customFormat="1">
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+    </row>
+    <row r="55" spans="1:18" s="54" customFormat="1">
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+    </row>
+    <row r="56" spans="1:18" s="58" customFormat="1">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+    </row>
+    <row r="57" spans="1:18" s="58" customFormat="1">
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+    </row>
+    <row r="58" spans="1:18" s="58" customFormat="1">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+    </row>
+    <row r="59" spans="1:18" s="58" customFormat="1">
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+    </row>
+    <row r="60" spans="1:18" s="58" customFormat="1">
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+    </row>
+    <row r="61" spans="1:18" s="58" customFormat="1">
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+    </row>
+    <row r="62" spans="1:18" s="58" customFormat="1">
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+    </row>
+    <row r="63" spans="1:18" s="58" customFormat="1">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+    </row>
+    <row r="64" spans="1:18" s="58" customFormat="1">
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+    </row>
+    <row r="65" spans="1:18" s="58" customFormat="1">
+      <c r="A65" s="54"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+    </row>
+    <row r="66" spans="1:18" s="58" customFormat="1">
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+    </row>
+    <row r="67" spans="1:18" s="58" customFormat="1">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
+    </row>
+    <row r="68" spans="1:18" s="58" customFormat="1">
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+    </row>
+    <row r="69" spans="1:18" s="58" customFormat="1">
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
+    </row>
+    <row r="70" spans="1:18" s="58" customFormat="1">
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="54"/>
+    </row>
+    <row r="71" spans="1:18" s="58" customFormat="1">
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="54"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1"/>
@@ -5906,20 +5938,20 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="93" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="93" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="94" customWidth="1"/>
-    <col min="4" max="4" width="52.875" style="95" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="96" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="93" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="93" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="97" customWidth="1"/>
-    <col min="9" max="9" width="13" style="97" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="92" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" style="93" customWidth="1"/>
+    <col min="4" max="4" width="52.875" style="94" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="95" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="92" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="92" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="96" customWidth="1"/>
+    <col min="9" max="9" width="13" style="96" customWidth="1"/>
     <col min="10" max="11" width="7.625" style="27" customWidth="1"/>
     <col min="12" max="12" width="12.125" style="27" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="27" hidden="1" customWidth="1"/>
@@ -5931,20 +5963,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="89" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="88" t="str">
         <f>IF(檢視記錄!C1="","",檢視記錄!C1)</f>
         <v/>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
@@ -6004,42 +6036,42 @@
         <v>381</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="E3" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="E3" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="G3" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="H3" s="91">
+      <c r="H3" s="90">
         <v>41598</v>
       </c>
-      <c r="I3" s="91">
+      <c r="I3" s="90">
         <v>41598</v>
       </c>
-      <c r="J3" s="89" t="str">
+      <c r="J3" s="88" t="str">
         <f t="shared" ref="J3" si="0">IF(I3="","","V")</f>
         <v>V</v>
       </c>
-      <c r="K3" s="89" t="str">
+      <c r="K3" s="88" t="str">
         <f t="shared" ref="K3" si="1">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
         <v/>
       </c>
-      <c r="L3" s="90" t="str">
+      <c r="L3" s="89" t="str">
         <f t="shared" ref="L3" si="2">IF(A3="","",LEFT(A3,FIND("-",A3)-1))</f>
         <v>SA PM</v>
       </c>
-      <c r="M3" s="90"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="36"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -6049,171 +6081,193 @@
         <v>381</v>
       </c>
       <c r="B4" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="E4" s="44" t="s">
         <v>392</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="F4" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="G4" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="H4" s="90">
+        <v>41598</v>
+      </c>
+      <c r="I4" s="90">
+        <v>41598</v>
+      </c>
+      <c r="J4" s="88" t="s">
         <v>394</v>
       </c>
-      <c r="G4" s="46" t="s">
-        <v>397</v>
-      </c>
-      <c r="H4" s="91">
-        <v>41598</v>
-      </c>
-      <c r="I4" s="91">
-        <v>41598</v>
-      </c>
-      <c r="J4" s="89" t="s">
-        <v>395</v>
-      </c>
-      <c r="K4" s="89" t="str">
+      <c r="K4" s="88" t="str">
         <f t="shared" ref="K4" si="3">IF(OR(J4&lt;&gt;"",C4=""),"","V")</f>
         <v/>
       </c>
-      <c r="L4" s="90" t="str">
+      <c r="L4" s="89" t="str">
         <f t="shared" ref="L4" si="4">IF(A4="","",LEFT(A4,FIND("-",A4)-1))</f>
         <v>SA PM</v>
       </c>
-      <c r="M4" s="90"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="36"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A5" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="D5" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>404</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>403</v>
-      </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="91">
+      <c r="G5" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="H5" s="90">
         <v>41606</v>
       </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
+      <c r="I5" s="90">
+        <v>41610</v>
+      </c>
+      <c r="J5" s="88" t="s">
+        <v>394</v>
+      </c>
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="36"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>403</v>
-      </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="91">
+      <c r="E6" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="H6" s="90">
         <v>41605</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="90">
         <v>41605</v>
       </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
+      <c r="J6" s="88" t="s">
+        <v>394</v>
+      </c>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="36"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="D7" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>403</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="91">
+      <c r="E7" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="H7" s="90">
         <v>41606</v>
       </c>
-      <c r="I7" s="91"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
+      <c r="I7" s="90">
+        <v>41610</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>394</v>
+      </c>
+      <c r="K7" s="88"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
       <c r="N7" s="36"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>412</v>
-      </c>
       <c r="D8" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="E8" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="E8" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="91">
+      <c r="H8" s="90">
         <v>41606</v>
       </c>
-      <c r="I8" s="91"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
+      <c r="I8" s="90">
+        <v>41610</v>
+      </c>
+      <c r="J8" s="88" t="s">
+        <v>394</v>
+      </c>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
       <c r="N8" s="36"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -6223,15 +6277,15 @@
       <c r="B9" s="41"/>
       <c r="C9" s="42"/>
       <c r="D9" s="43"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
       <c r="N9" s="36"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -6239,17 +6293,17 @@
     <row r="10" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
-      <c r="C10" s="48"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="43"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
       <c r="N10" s="36"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -6257,17 +6311,17 @@
     <row r="11" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="41"/>
-      <c r="C11" s="48"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="43"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="36"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -6275,17 +6329,17 @@
     <row r="12" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="41"/>
-      <c r="C12" s="48"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="43"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
       <c r="N12" s="36"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -6293,17 +6347,17 @@
     <row r="13" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
-      <c r="C13" s="48"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="43"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
       <c r="N13" s="36"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -6311,17 +6365,17 @@
     <row r="14" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="48"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="43"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
       <c r="N14" s="36"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
@@ -6329,17 +6383,17 @@
     <row r="15" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="48"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="43"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
       <c r="N15" s="36"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
@@ -6347,17 +6401,17 @@
     <row r="16" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="48"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="43"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
       <c r="N16" s="36"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
@@ -6365,17 +6419,17 @@
     <row r="17" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="48"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="43"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="36"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -6383,17 +6437,17 @@
     <row r="18" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A18" s="40"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="48"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="43"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
       <c r="N18" s="36"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
@@ -6401,679 +6455,679 @@
     <row r="19" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="41"/>
-      <c r="C19" s="48"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
       <c r="N19" s="36"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
     </row>
     <row r="20" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A20" s="47"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="41"/>
-      <c r="C20" s="48"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="89" t="str">
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="88" t="str">
         <f t="shared" ref="J20:J34" si="5">IF(I20="","","V")</f>
         <v/>
       </c>
-      <c r="K20" s="89" t="str">
+      <c r="K20" s="88" t="str">
         <f t="shared" ref="K20:K34" si="6">IF(OR(J20&lt;&gt;"",C20=""),"","V")</f>
         <v/>
       </c>
-      <c r="L20" s="90" t="str">
+      <c r="L20" s="89" t="str">
         <f t="shared" ref="L20:L34" si="7">IF(A20="","",LEFT(A20,FIND("-",A20)-1))</f>
         <v/>
       </c>
-      <c r="M20" s="90"/>
+      <c r="M20" s="89"/>
       <c r="N20" s="36"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
     </row>
     <row r="21" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="41"/>
-      <c r="C21" s="48"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="43"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="89" t="str">
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K21" s="89" t="str">
+      <c r="K21" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L21" s="90" t="str">
+      <c r="L21" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M21" s="90"/>
+      <c r="M21" s="89"/>
       <c r="N21" s="36"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
     </row>
     <row r="22" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A22" s="47"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="41"/>
-      <c r="C22" s="48"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="43"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="89" t="str">
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K22" s="89" t="str">
+      <c r="K22" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L22" s="90" t="str">
+      <c r="L22" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M22" s="90"/>
+      <c r="M22" s="89"/>
       <c r="N22" s="36"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
     </row>
     <row r="23" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A23" s="47"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="41"/>
-      <c r="C23" s="48"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="43"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="89" t="str">
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K23" s="89" t="str">
+      <c r="K23" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L23" s="90" t="str">
+      <c r="L23" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M23" s="90"/>
+      <c r="M23" s="89"/>
       <c r="N23" s="36"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A24" s="47"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="41"/>
-      <c r="C24" s="48"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="43"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="89" t="str">
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K24" s="89" t="str">
+      <c r="K24" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L24" s="90" t="str">
+      <c r="L24" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M24" s="90"/>
+      <c r="M24" s="89"/>
       <c r="N24" s="36"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
     </row>
     <row r="25" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A25" s="47"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="48"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="43"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="89" t="str">
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K25" s="89" t="str">
+      <c r="K25" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L25" s="90" t="str">
+      <c r="L25" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M25" s="90"/>
+      <c r="M25" s="89"/>
       <c r="N25" s="36"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A26" s="47"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="48"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="43"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="89" t="str">
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K26" s="89" t="str">
+      <c r="K26" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L26" s="90" t="str">
+      <c r="L26" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M26" s="90"/>
+      <c r="M26" s="89"/>
       <c r="N26" s="36"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
     </row>
     <row r="27" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A27" s="47"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="41"/>
-      <c r="C27" s="48"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="43"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="89" t="str">
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K27" s="89" t="str">
+      <c r="K27" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L27" s="90" t="str">
+      <c r="L27" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M27" s="90"/>
+      <c r="M27" s="89"/>
       <c r="N27" s="36"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="41"/>
-      <c r="C28" s="48"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="43"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="89" t="str">
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K28" s="89" t="str">
+      <c r="K28" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L28" s="90" t="str">
+      <c r="L28" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M28" s="90"/>
+      <c r="M28" s="89"/>
       <c r="N28" s="36"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
     </row>
     <row r="29" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="41"/>
-      <c r="C29" s="48"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="43"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="89" t="str">
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K29" s="89" t="str">
+      <c r="K29" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L29" s="90" t="str">
+      <c r="L29" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M29" s="90"/>
+      <c r="M29" s="89"/>
       <c r="N29" s="36"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="41"/>
-      <c r="C30" s="48"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="43"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="89" t="str">
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K30" s="89" t="str">
+      <c r="K30" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L30" s="90" t="str">
+      <c r="L30" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M30" s="90"/>
+      <c r="M30" s="89"/>
       <c r="N30" s="36"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
     </row>
     <row r="31" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="41"/>
-      <c r="C31" s="48"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="43"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="89" t="str">
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K31" s="89" t="str">
+      <c r="K31" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L31" s="90" t="str">
+      <c r="L31" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M31" s="90"/>
+      <c r="M31" s="89"/>
       <c r="N31" s="36"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="41"/>
-      <c r="C32" s="48"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="43"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="89" t="str">
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K32" s="89" t="str">
+      <c r="K32" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L32" s="90" t="str">
+      <c r="L32" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M32" s="90"/>
+      <c r="M32" s="89"/>
       <c r="N32" s="36"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
     </row>
     <row r="33" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="41"/>
-      <c r="C33" s="48"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="43"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="89" t="str">
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K33" s="89" t="str">
+      <c r="K33" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L33" s="90" t="str">
+      <c r="L33" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M33" s="90"/>
+      <c r="M33" s="89"/>
       <c r="N33" s="36"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
     </row>
     <row r="34" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="41"/>
-      <c r="C34" s="48"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="43"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="89" t="str">
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="88" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K34" s="89" t="str">
+      <c r="K34" s="88" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L34" s="90" t="str">
+      <c r="L34" s="89" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M34" s="90"/>
+      <c r="M34" s="89"/>
       <c r="N34" s="36"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
     </row>
     <row r="35" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A35" s="47"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="41"/>
-      <c r="C35" s="48"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="43"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="89" t="str">
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="88" t="str">
         <f t="shared" ref="J35:J43" si="8">IF(I35="","","V")</f>
         <v/>
       </c>
-      <c r="K35" s="89" t="str">
+      <c r="K35" s="88" t="str">
         <f t="shared" ref="K35:K43" si="9">IF(OR(J35&lt;&gt;"",C35=""),"","V")</f>
         <v/>
       </c>
-      <c r="L35" s="90" t="str">
+      <c r="L35" s="89" t="str">
         <f t="shared" ref="L35:L43" si="10">IF(A35="","",LEFT(A35,FIND("-",A35)-1))</f>
         <v/>
       </c>
-      <c r="M35" s="90"/>
+      <c r="M35" s="89"/>
       <c r="N35" s="36"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="41"/>
-      <c r="C36" s="48"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="43"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="89" t="str">
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="88" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K36" s="89" t="str">
+      <c r="K36" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L36" s="90" t="str">
+      <c r="L36" s="89" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M36" s="90"/>
+      <c r="M36" s="89"/>
       <c r="N36" s="36"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
     </row>
     <row r="37" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="41"/>
-      <c r="C37" s="48"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="43"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="89" t="str">
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="88" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K37" s="89" t="str">
+      <c r="K37" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L37" s="90" t="str">
+      <c r="L37" s="89" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M37" s="90"/>
+      <c r="M37" s="89"/>
       <c r="N37" s="36"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
     </row>
     <row r="38" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A38" s="47"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="41"/>
-      <c r="C38" s="48"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="43"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="89" t="str">
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="88" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K38" s="89" t="str">
+      <c r="K38" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L38" s="90" t="str">
+      <c r="L38" s="89" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M38" s="90"/>
+      <c r="M38" s="89"/>
       <c r="N38" s="36"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
     </row>
     <row r="39" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A39" s="47"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="41"/>
-      <c r="C39" s="48"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="89" t="str">
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="88" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K39" s="89" t="str">
+      <c r="K39" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L39" s="90" t="str">
+      <c r="L39" s="89" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M39" s="90"/>
+      <c r="M39" s="89"/>
       <c r="N39" s="36"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
     </row>
     <row r="40" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A40" s="47"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="48"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="43"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="89" t="str">
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="88" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K40" s="89" t="str">
+      <c r="K40" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L40" s="90" t="str">
+      <c r="L40" s="89" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M40" s="90"/>
+      <c r="M40" s="89"/>
       <c r="N40" s="36"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
     </row>
     <row r="41" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A41" s="47"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="41"/>
-      <c r="C41" s="48"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="43"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="89" t="str">
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="88" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K41" s="89" t="str">
+      <c r="K41" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L41" s="90" t="str">
+      <c r="L41" s="89" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M41" s="90"/>
+      <c r="M41" s="89"/>
       <c r="N41" s="36"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
     </row>
     <row r="42" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A42" s="47"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="41"/>
-      <c r="C42" s="48"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="43"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="89" t="str">
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="88" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K42" s="89" t="str">
+      <c r="K42" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L42" s="90" t="str">
+      <c r="L42" s="89" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M42" s="90"/>
+      <c r="M42" s="89"/>
       <c r="N42" s="36"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
     </row>
     <row r="43" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A43" s="47"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="41"/>
-      <c r="C43" s="48"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="43"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="89" t="str">
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="88" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K43" s="89" t="str">
+      <c r="K43" s="88" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L43" s="90" t="str">
+      <c r="L43" s="89" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M43" s="90"/>
+      <c r="M43" s="89"/>
       <c r="N43" s="36"/>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
     </row>
     <row r="44" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -7085,15 +7139,15 @@
       <c r="R44" s="22"/>
     </row>
     <row r="45" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
@@ -7105,15 +7159,15 @@
       <c r="R45" s="22"/>
     </row>
     <row r="46" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
@@ -7125,15 +7179,15 @@
       <c r="R46" s="22"/>
     </row>
     <row r="47" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -7145,15 +7199,15 @@
       <c r="R47" s="22"/>
     </row>
     <row r="48" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -7165,15 +7219,15 @@
       <c r="R48" s="22"/>
     </row>
     <row r="49" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
@@ -7185,15 +7239,15 @@
       <c r="R49" s="22"/>
     </row>
     <row r="50" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
@@ -7205,15 +7259,15 @@
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A51" s="86"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
@@ -7225,15 +7279,15 @@
       <c r="R51" s="22"/>
     </row>
     <row r="52" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -7245,15 +7299,15 @@
       <c r="R52" s="22"/>
     </row>
     <row r="53" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
@@ -7265,15 +7319,15 @@
       <c r="R53" s="22"/>
     </row>
     <row r="54" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
@@ -7285,15 +7339,15 @@
       <c r="R54" s="22"/>
     </row>
     <row r="55" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
@@ -7305,15 +7359,15 @@
       <c r="R55" s="22"/>
     </row>
     <row r="56" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
@@ -7325,15 +7379,15 @@
       <c r="R56" s="22"/>
     </row>
     <row r="57" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A57" s="86"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
@@ -7345,15 +7399,15 @@
       <c r="R57" s="22"/>
     </row>
     <row r="58" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
@@ -7365,15 +7419,15 @@
       <c r="R58" s="22"/>
     </row>
     <row r="59" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
@@ -7385,15 +7439,15 @@
       <c r="R59" s="22"/>
     </row>
     <row r="60" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="87"/>
       <c r="J60" s="22"/>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
@@ -7405,15 +7459,15 @@
       <c r="R60" s="22"/>
     </row>
     <row r="61" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A61" s="86"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
@@ -7425,15 +7479,15 @@
       <c r="R61" s="22"/>
     </row>
     <row r="62" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A62" s="86"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="87"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
@@ -7445,15 +7499,15 @@
       <c r="R62" s="22"/>
     </row>
     <row r="63" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A63" s="86"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="87"/>
+      <c r="I63" s="87"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
@@ -7465,15 +7519,15 @@
       <c r="R63" s="22"/>
     </row>
     <row r="64" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A64" s="86"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
+      <c r="A64" s="85"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="87"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
@@ -7485,15 +7539,15 @@
       <c r="R64" s="22"/>
     </row>
     <row r="65" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A65" s="86"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="87"/>
+      <c r="I65" s="87"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
@@ -7505,15 +7559,15 @@
       <c r="R65" s="22"/>
     </row>
     <row r="66" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A66" s="86"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
+      <c r="A66" s="85"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
@@ -7525,15 +7579,15 @@
       <c r="R66" s="22"/>
     </row>
     <row r="67" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A67" s="86"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="87"/>
+      <c r="I67" s="87"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
@@ -7545,15 +7599,15 @@
       <c r="R67" s="22"/>
     </row>
     <row r="68" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A68" s="86"/>
-      <c r="B68" s="86"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="87"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
@@ -7565,15 +7619,15 @@
       <c r="R68" s="22"/>
     </row>
     <row r="69" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A69" s="86"/>
-      <c r="B69" s="86"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="86"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="87"/>
+      <c r="I69" s="87"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
@@ -7585,15 +7639,15 @@
       <c r="R69" s="22"/>
     </row>
     <row r="70" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A70" s="86"/>
-      <c r="B70" s="86"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
+      <c r="A70" s="85"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="87"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
@@ -7605,15 +7659,15 @@
       <c r="R70" s="22"/>
     </row>
     <row r="71" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A71" s="86"/>
-      <c r="B71" s="86"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="88"/>
-      <c r="I71" s="88"/>
+      <c r="A71" s="85"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
@@ -7625,15 +7679,15 @@
       <c r="R71" s="22"/>
     </row>
     <row r="72" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A72" s="86"/>
-      <c r="B72" s="86"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
+      <c r="A72" s="85"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="87"/>
+      <c r="I72" s="87"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
@@ -7645,15 +7699,15 @@
       <c r="R72" s="22"/>
     </row>
     <row r="73" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A73" s="86"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
+      <c r="A73" s="85"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="87"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
@@ -7665,15 +7719,15 @@
       <c r="R73" s="22"/>
     </row>
     <row r="74" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A74" s="86"/>
-      <c r="B74" s="86"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="88"/>
+      <c r="A74" s="85"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
@@ -7685,15 +7739,15 @@
       <c r="R74" s="22"/>
     </row>
     <row r="75" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A75" s="86"/>
-      <c r="B75" s="86"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="86"/>
-      <c r="G75" s="86"/>
-      <c r="H75" s="88"/>
-      <c r="I75" s="88"/>
+      <c r="A75" s="85"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="87"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
@@ -7705,15 +7759,15 @@
       <c r="R75" s="22"/>
     </row>
     <row r="76" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A76" s="86"/>
-      <c r="B76" s="86"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="86"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
+      <c r="A76" s="85"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
@@ -7725,15 +7779,15 @@
       <c r="R76" s="22"/>
     </row>
     <row r="77" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A77" s="86"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
+      <c r="A77" s="85"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="87"/>
+      <c r="I77" s="87"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
@@ -7745,15 +7799,15 @@
       <c r="R77" s="22"/>
     </row>
     <row r="78" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A78" s="86"/>
-      <c r="B78" s="86"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
+      <c r="A78" s="85"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="87"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
       <c r="L78" s="22"/>
@@ -7765,15 +7819,15 @@
       <c r="R78" s="22"/>
     </row>
     <row r="79" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A79" s="86"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="87"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="86"/>
-      <c r="H79" s="88"/>
-      <c r="I79" s="88"/>
+      <c r="A79" s="85"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="87"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
@@ -7785,15 +7839,15 @@
       <c r="R79" s="22"/>
     </row>
     <row r="80" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A80" s="86"/>
-      <c r="B80" s="86"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="86"/>
-      <c r="F80" s="86"/>
-      <c r="G80" s="86"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
+      <c r="A80" s="85"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="87"/>
+      <c r="I80" s="87"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
@@ -7805,15 +7859,15 @@
       <c r="R80" s="22"/>
     </row>
     <row r="81" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A81" s="86"/>
-      <c r="B81" s="86"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="86"/>
-      <c r="F81" s="86"/>
-      <c r="G81" s="86"/>
-      <c r="H81" s="88"/>
-      <c r="I81" s="88"/>
+      <c r="A81" s="85"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="87"/>
+      <c r="I81" s="87"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
@@ -7825,15 +7879,15 @@
       <c r="R81" s="22"/>
     </row>
     <row r="82" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A82" s="86"/>
-      <c r="B82" s="86"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="86"/>
-      <c r="H82" s="88"/>
-      <c r="I82" s="88"/>
+      <c r="A82" s="85"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="87"/>
+      <c r="I82" s="87"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
@@ -7845,15 +7899,15 @@
       <c r="R82" s="22"/>
     </row>
     <row r="83" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A83" s="86"/>
-      <c r="B83" s="86"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="86"/>
-      <c r="G83" s="86"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="88"/>
+      <c r="A83" s="85"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="87"/>
+      <c r="I83" s="87"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
@@ -7865,15 +7919,15 @@
       <c r="R83" s="22"/>
     </row>
     <row r="84" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A84" s="86"/>
-      <c r="B84" s="86"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="87"/>
-      <c r="E84" s="86"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="86"/>
-      <c r="H84" s="88"/>
-      <c r="I84" s="88"/>
+      <c r="A84" s="85"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="87"/>
+      <c r="I84" s="87"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
@@ -7885,15 +7939,15 @@
       <c r="R84" s="22"/>
     </row>
     <row r="85" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A85" s="86"/>
-      <c r="B85" s="86"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="87"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="86"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="88"/>
+      <c r="A85" s="85"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="87"/>
+      <c r="I85" s="87"/>
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
       <c r="L85" s="22"/>
@@ -7905,15 +7959,15 @@
       <c r="R85" s="22"/>
     </row>
     <row r="86" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A86" s="86"/>
-      <c r="B86" s="86"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="87"/>
-      <c r="E86" s="86"/>
-      <c r="F86" s="86"/>
-      <c r="G86" s="86"/>
-      <c r="H86" s="88"/>
-      <c r="I86" s="88"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="87"/>
+      <c r="I86" s="87"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
       <c r="L86" s="22"/>
@@ -7925,15 +7979,15 @@
       <c r="R86" s="22"/>
     </row>
     <row r="87" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A87" s="86"/>
-      <c r="B87" s="86"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="87"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="86"/>
-      <c r="H87" s="88"/>
-      <c r="I87" s="88"/>
+      <c r="A87" s="85"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="87"/>
+      <c r="I87" s="87"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22"/>
       <c r="L87" s="22"/>
@@ -7945,15 +7999,15 @@
       <c r="R87" s="22"/>
     </row>
     <row r="88" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A88" s="86"/>
-      <c r="B88" s="86"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="87"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="86"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="88"/>
+      <c r="A88" s="85"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="87"/>
+      <c r="I88" s="87"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22"/>
       <c r="L88" s="22"/>
@@ -7965,15 +8019,15 @@
       <c r="R88" s="22"/>
     </row>
     <row r="89" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A89" s="86"/>
-      <c r="B89" s="86"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="86"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="88"/>
-      <c r="I89" s="88"/>
+      <c r="A89" s="85"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="87"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
@@ -7985,15 +8039,15 @@
       <c r="R89" s="22"/>
     </row>
     <row r="90" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A90" s="86"/>
-      <c r="B90" s="86"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="87"/>
-      <c r="E90" s="86"/>
-      <c r="F90" s="86"/>
-      <c r="G90" s="86"/>
-      <c r="H90" s="88"/>
-      <c r="I90" s="88"/>
+      <c r="A90" s="85"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="86"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="87"/>
+      <c r="I90" s="87"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22"/>
       <c r="L90" s="22"/>
@@ -8005,15 +8059,15 @@
       <c r="R90" s="22"/>
     </row>
     <row r="91" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A91" s="86"/>
-      <c r="B91" s="86"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="87"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="88"/>
-      <c r="I91" s="88"/>
+      <c r="A91" s="85"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="87"/>
+      <c r="I91" s="87"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
@@ -8025,15 +8079,15 @@
       <c r="R91" s="22"/>
     </row>
     <row r="92" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A92" s="86"/>
-      <c r="B92" s="86"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="87"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="88"/>
-      <c r="I92" s="88"/>
+      <c r="A92" s="85"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="87"/>
+      <c r="I92" s="87"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
@@ -8045,15 +8099,15 @@
       <c r="R92" s="22"/>
     </row>
     <row r="93" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A93" s="86"/>
-      <c r="B93" s="86"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="87"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="88"/>
-      <c r="I93" s="88"/>
+      <c r="A93" s="85"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="87"/>
+      <c r="I93" s="87"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22"/>
       <c r="L93" s="22"/>
@@ -8065,15 +8119,15 @@
       <c r="R93" s="22"/>
     </row>
     <row r="94" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A94" s="86"/>
-      <c r="B94" s="86"/>
-      <c r="C94" s="86"/>
-      <c r="D94" s="87"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="86"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="88"/>
-      <c r="I94" s="88"/>
+      <c r="A94" s="85"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="87"/>
+      <c r="I94" s="87"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22"/>
       <c r="L94" s="22"/>
@@ -8085,15 +8139,15 @@
       <c r="R94" s="22"/>
     </row>
     <row r="95" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A95" s="86"/>
-      <c r="B95" s="86"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="87"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="86"/>
-      <c r="G95" s="86"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="88"/>
+      <c r="A95" s="85"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="87"/>
+      <c r="I95" s="87"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
@@ -8105,15 +8159,15 @@
       <c r="R95" s="22"/>
     </row>
     <row r="96" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A96" s="86"/>
-      <c r="B96" s="86"/>
-      <c r="C96" s="86"/>
-      <c r="D96" s="87"/>
-      <c r="E96" s="86"/>
-      <c r="F96" s="86"/>
-      <c r="G96" s="86"/>
-      <c r="H96" s="88"/>
-      <c r="I96" s="88"/>
+      <c r="A96" s="85"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="87"/>
+      <c r="I96" s="87"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
@@ -8125,15 +8179,15 @@
       <c r="R96" s="22"/>
     </row>
     <row r="97" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A97" s="86"/>
-      <c r="B97" s="86"/>
-      <c r="C97" s="86"/>
-      <c r="D97" s="87"/>
-      <c r="E97" s="86"/>
-      <c r="F97" s="86"/>
-      <c r="G97" s="86"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88"/>
+      <c r="A97" s="85"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="87"/>
+      <c r="I97" s="87"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
@@ -8145,15 +8199,15 @@
       <c r="R97" s="22"/>
     </row>
     <row r="98" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A98" s="86"/>
-      <c r="B98" s="86"/>
-      <c r="C98" s="86"/>
-      <c r="D98" s="87"/>
-      <c r="E98" s="86"/>
-      <c r="F98" s="86"/>
-      <c r="G98" s="86"/>
-      <c r="H98" s="88"/>
-      <c r="I98" s="88"/>
+      <c r="A98" s="85"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="87"/>
+      <c r="I98" s="87"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22"/>
       <c r="L98" s="22"/>
@@ -8165,25 +8219,25 @@
       <c r="R98" s="22"/>
     </row>
     <row r="99" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I99" s="88"/>
+      <c r="I99" s="87"/>
     </row>
     <row r="100" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I100" s="88"/>
+      <c r="I100" s="87"/>
     </row>
     <row r="101" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I101" s="88"/>
+      <c r="I101" s="87"/>
     </row>
     <row r="102" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I102" s="88"/>
+      <c r="I102" s="87"/>
     </row>
     <row r="103" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I103" s="88"/>
+      <c r="I103" s="87"/>
     </row>
     <row r="104" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I104" s="88"/>
+      <c r="I104" s="87"/>
     </row>
     <row r="105" spans="1:18" ht="31.15" customHeight="1">
-      <c r="I105" s="88"/>
+      <c r="I105" s="87"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -8229,91 +8283,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="116" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="116" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="116" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="116" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" style="116" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="116" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="116" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="115" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="115" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="115" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="115" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.75" style="115" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="115" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="115" customWidth="1"/>
     <col min="8" max="8" width="30.5" style="28" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="116" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="116"/>
+    <col min="9" max="9" width="16.625" style="115" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="113" customFormat="1">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:9" s="112" customFormat="1">
+      <c r="A1" s="113" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="114" t="s">
+      <c r="C1" s="110"/>
+      <c r="D1" s="113" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="115" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="114" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="114" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="33">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="138" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="137" t="s">
         <v>371</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="116" t="s">
         <v>352</v>
       </c>
       <c r="F2" s="33"/>
-      <c r="G2" s="118" t="s">
+      <c r="G2" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="118" t="s">
         <v>257</v>
       </c>
       <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="33">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="137" t="s">
         <v>354</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="137" t="s">
         <v>371</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="116" t="s">
         <v>305</v>
       </c>
       <c r="F3" s="33"/>
-      <c r="G3" s="118" t="s">
+      <c r="G3" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="136" t="s">
         <v>258</v>
       </c>
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="33">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="137" t="s">
         <v>371</v>
       </c>
       <c r="C4" s="33"/>
@@ -8324,19 +8378,19 @@
         <v>304</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="136" t="s">
         <v>259</v>
       </c>
       <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="49.5">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="138" t="s">
         <v>355</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="137" t="s">
         <v>371</v>
       </c>
       <c r="C5" s="33"/>
@@ -8347,18 +8401,18 @@
         <v>300</v>
       </c>
       <c r="F5" s="33"/>
-      <c r="G5" s="118" t="s">
+      <c r="G5" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="136" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="49.5">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="137" t="s">
         <v>371</v>
       </c>
       <c r="C6" s="33"/>
@@ -8369,18 +8423,18 @@
         <v>297</v>
       </c>
       <c r="F6" s="33"/>
-      <c r="G6" s="118" t="s">
+      <c r="G6" s="117" t="s">
         <v>252</v>
       </c>
-      <c r="H6" s="137" t="s">
+      <c r="H6" s="136" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="49.5">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="138" t="s">
         <v>358</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="138" t="s">
         <v>372</v>
       </c>
       <c r="C7" s="33"/>
@@ -8391,18 +8445,18 @@
         <v>351</v>
       </c>
       <c r="F7" s="33"/>
-      <c r="G7" s="118" t="s">
+      <c r="G7" s="117" t="s">
         <v>253</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="H7" s="136" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="138" t="s">
         <v>359</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="138" t="s">
         <v>372</v>
       </c>
       <c r="C8" s="34"/>
@@ -8413,146 +8467,146 @@
         <v>275</v>
       </c>
       <c r="F8" s="33"/>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="117" t="s">
         <v>287</v>
       </c>
-      <c r="H8" s="119" t="s">
+      <c r="H8" s="118" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="49.5">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>372</v>
       </c>
       <c r="C9" s="33"/>
       <c r="F9" s="33"/>
-      <c r="G9" s="118" t="s">
+      <c r="G9" s="117" t="s">
         <v>254</v>
       </c>
-      <c r="H9" s="119" t="s">
+      <c r="H9" s="118" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="138" t="s">
         <v>372</v>
       </c>
       <c r="C10" s="33"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="118" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="138" t="s">
         <v>362</v>
       </c>
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="138" t="s">
         <v>372</v>
       </c>
       <c r="C11" s="33"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="118" t="s">
+      <c r="F11" s="119"/>
+      <c r="G11" s="117" t="s">
         <v>255</v>
       </c>
-      <c r="H11" s="119"/>
+      <c r="H11" s="118"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="138" t="s">
         <v>363</v>
       </c>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="138" t="s">
         <v>372</v>
       </c>
       <c r="C12" s="33"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="118" t="s">
+      <c r="F12" s="119"/>
+      <c r="G12" s="117" t="s">
         <v>256</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="118"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="138" t="s">
         <v>364</v>
       </c>
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="138" t="s">
         <v>372</v>
       </c>
       <c r="C13" s="33"/>
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="138" t="s">
         <v>372</v>
       </c>
       <c r="C14" s="33"/>
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="138" t="s">
         <v>366</v>
       </c>
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="138" t="s">
         <v>373</v>
       </c>
       <c r="C15" s="34"/>
       <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="139" t="s">
+      <c r="A16" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="138" t="s">
         <v>373</v>
       </c>
-      <c r="C16" s="120"/>
+      <c r="C16" s="119"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="139" t="s">
+      <c r="A17" s="138" t="s">
         <v>368</v>
       </c>
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="138" t="s">
         <v>373</v>
       </c>
       <c r="C17" s="33"/>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="138" t="s">
         <v>369</v>
       </c>
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="137" t="s">
         <v>374</v>
       </c>
       <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="137" t="s">
         <v>370</v>
       </c>
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="137" t="s">
         <v>375</v>
       </c>
       <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="137" t="s">
         <v>376</v>
       </c>
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="137" t="s">
         <v>375</v>
       </c>
       <c r="F20" s="34"/>
@@ -11789,392 +11843,392 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="136" customWidth="1"/>
-    <col min="3" max="3" width="3.875" style="136" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" style="136" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="135" customWidth="1"/>
+    <col min="3" max="3" width="3.875" style="135" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="135" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="121" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="121" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="121" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122" t="s">
+      <c r="D1" s="121"/>
+      <c r="E1" s="121" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="122" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="123" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="125">
+      <c r="C2" s="124">
         <v>1</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E2" s="126" t="s">
+      <c r="E2" s="125" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="127"/>
-      <c r="B3" s="124" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="123" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="125">
+      <c r="C3" s="124">
         <v>2</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="125" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="123" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="125">
+      <c r="C4" s="124">
         <v>3</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="125" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129" t="s">
+      <c r="A5" s="127"/>
+      <c r="B5" s="128" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="124">
         <v>4</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="125" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="128"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="125">
+      <c r="A6" s="127"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="124">
         <v>5</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E6" s="126" t="s">
+      <c r="E6" s="125" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="128"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="125">
+      <c r="A7" s="127"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="124">
         <v>6</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="125" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="128"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="125">
+      <c r="A8" s="127"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="124">
         <v>7</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="125" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129" t="s">
+      <c r="A9" s="127"/>
+      <c r="B9" s="128" t="s">
         <v>339</v>
       </c>
-      <c r="C9" s="125">
+      <c r="C9" s="124">
         <v>8</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="126" t="s">
+      <c r="E9" s="125" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="128"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="125">
+      <c r="A10" s="127"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="124">
         <v>9</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E10" s="126" t="s">
+      <c r="E10" s="125" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="128"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="125">
+      <c r="A11" s="127"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="124">
         <v>10</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="125" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="128"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="125">
+      <c r="A12" s="127"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="124">
         <v>11</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E12" s="126" t="s">
+      <c r="E12" s="125" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="128"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="125">
+      <c r="A13" s="127"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="124">
         <v>12</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="D13" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="125" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="128"/>
-      <c r="B14" s="129" t="s">
+      <c r="A14" s="127"/>
+      <c r="B14" s="128" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="125">
+      <c r="C14" s="124">
         <v>13</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="125" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="128"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="125">
+      <c r="A15" s="127"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="124">
         <v>14</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="125" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="128"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="125">
+      <c r="A16" s="127"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="124">
         <v>15</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E16" s="132" t="s">
+      <c r="E16" s="131" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="128"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="125">
+      <c r="A17" s="127"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="124">
         <v>16</v>
       </c>
-      <c r="D17" s="125" t="s">
+      <c r="D17" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="125" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="128"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="125">
+      <c r="A18" s="127"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="124">
         <v>17</v>
       </c>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E18" s="126" t="s">
+      <c r="E18" s="125" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="128"/>
-      <c r="B19" s="129" t="s">
+      <c r="A19" s="127"/>
+      <c r="B19" s="128" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="125">
+      <c r="C19" s="124">
         <v>18</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E19" s="126" t="s">
+      <c r="E19" s="125" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="128"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="125">
+      <c r="A20" s="127"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="124">
         <v>19</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E20" s="126" t="s">
+      <c r="E20" s="125" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="128"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="125">
+      <c r="A21" s="127"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="124">
         <v>20</v>
       </c>
-      <c r="D21" s="125" t="s">
+      <c r="D21" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E21" s="126" t="s">
+      <c r="E21" s="125" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="128"/>
-      <c r="B22" s="129" t="s">
+      <c r="A22" s="127"/>
+      <c r="B22" s="128" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="125">
+      <c r="C22" s="124">
         <v>21</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="D22" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="125" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="128"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="125">
+      <c r="A23" s="127"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="124">
         <v>22</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="124" t="s">
+      <c r="E23" s="123" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="128"/>
-      <c r="B24" s="124" t="s">
+      <c r="A24" s="127"/>
+      <c r="B24" s="123" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="125">
+      <c r="C24" s="124">
         <v>23</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="D24" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="123" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="135"/>
-      <c r="B25" s="124" t="s">
+      <c r="A25" s="134"/>
+      <c r="B25" s="123" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="125">
+      <c r="C25" s="124">
         <v>24</v>
       </c>
-      <c r="D25" s="125" t="s">
+      <c r="D25" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E25" s="132" t="s">
+      <c r="E25" s="131" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="122" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="123" t="s">
         <v>328</v>
       </c>
-      <c r="C26" s="125">
+      <c r="C26" s="124">
         <v>25</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E26" s="126" t="s">
+      <c r="E26" s="125" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="135"/>
-      <c r="B27" s="132" t="s">
+      <c r="A27" s="134"/>
+      <c r="B27" s="131" t="s">
         <v>329</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="124">
         <v>26</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="E27" s="132" t="s">
+      <c r="E27" s="131" t="s">
         <v>330</v>
       </c>
     </row>
